--- a/Género/Panamá/consolidado_CENSO 2010, Población por grupo indígena (otros), corregimiento y sexo.xlsx
+++ b/Género/Panamá/consolidado_CENSO 2010, Población por grupo indígena (otros), corregimiento y sexo.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\Desktop\Python\Censo 2010\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\Género\Panamá\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B684B1C7-201D-4939-AA2D-FAEFF081AB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C12ED-EBF0-4EB2-99A5-271582866FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13410" yWindow="2100" windowWidth="20430" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Actual" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actual!$A$1:$E$415</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="244">
   <si>
     <t>Area</t>
   </si>
@@ -746,6 +761,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Parandai (Perú)</t>
+  </si>
+  <si>
+    <t>Corregimiento</t>
+  </si>
+  <si>
+    <t>Cod_Corr</t>
   </si>
 </sst>
 </file>
@@ -777,7 +798,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -800,20 +821,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -824,6 +905,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90FCB1BD-086A-4454-AF40-366F0A346B11}" name="Pob_Indígena2_Corr_Sexo" displayName="Pob_Indígena2_Corr_Sexo" ref="A1:E415" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:E415" xr:uid="{FB772EA8-5085-4208-B66C-88B0EBD0239C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{959A05F7-C9B7-4234-9161-7396E83F605B}" name="Cod_Corr"/>
+    <tableColumn id="2" xr3:uid="{C7314076-E755-4ABE-912D-6F66E50519EB}" name="Corregimiento"/>
+    <tableColumn id="3" xr3:uid="{BB17B0FA-AC51-40D3-8C26-52489CBB0D6E}" name="Genero"/>
+    <tableColumn id="4" xr3:uid="{17C65880-713B-419E-8981-708390AE85FE}" name="Cantidad"/>
+    <tableColumn id="5" xr3:uid="{FE30021A-9EAA-4402-BEA6-2E92F2D422F3}" name="Grupo indigena"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1150,7 +1245,6661 @@
   <dimension ref="A1:E415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10401</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10401</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10401</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10206</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10405</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10405</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10405</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10405</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10301</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10301</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10301</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10304</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10304</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20302</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20302</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20402</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20402</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20404</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20404</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20602</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20602</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20610</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20610</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>30101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>30102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>30103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>30104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>30104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="E63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>30110</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>30110</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>30110</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>30110</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>30110</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>30111</v>
+      </c>
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>30111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>30113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>30113</v>
+      </c>
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" t="s">
+        <v>228</v>
+      </c>
+      <c r="E77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>30301</v>
+      </c>
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>30301</v>
+      </c>
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>30401</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>30401</v>
+      </c>
+      <c r="B81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>40102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>40102</v>
+      </c>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>30505</v>
+      </c>
+      <c r="B84" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>30505</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" t="s">
+        <v>228</v>
+      </c>
+      <c r="E85" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>40502</v>
+      </c>
+      <c r="B86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>40502</v>
+      </c>
+      <c r="B87" t="s">
+        <v>147</v>
+      </c>
+      <c r="C87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>41401</v>
+      </c>
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>41401</v>
+      </c>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>41401</v>
+      </c>
+      <c r="B90" t="s">
+        <v>148</v>
+      </c>
+      <c r="C90" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>41401</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" t="s">
+        <v>228</v>
+      </c>
+      <c r="E91" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>40601</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>227</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>40601</v>
+      </c>
+      <c r="B93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>40601</v>
+      </c>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>40601</v>
+      </c>
+      <c r="B95" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>40601</v>
+      </c>
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>40601</v>
+      </c>
+      <c r="B97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>40601</v>
+      </c>
+      <c r="B98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>40601</v>
+      </c>
+      <c r="B99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>20306</v>
+      </c>
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
+        <v>227</v>
+      </c>
+      <c r="E100" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>20306</v>
+      </c>
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>20306</v>
+      </c>
+      <c r="B102" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>20306</v>
+      </c>
+      <c r="B103" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>20306</v>
+      </c>
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>20306</v>
+      </c>
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>20306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>20306</v>
+      </c>
+      <c r="B107" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>40307</v>
+      </c>
+      <c r="B108" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" t="s">
+        <v>227</v>
+      </c>
+      <c r="E108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>40307</v>
+      </c>
+      <c r="B109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>40708</v>
+      </c>
+      <c r="B110" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>40708</v>
+      </c>
+      <c r="B111" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>41001</v>
+      </c>
+      <c r="B112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" t="s">
+        <v>227</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>41001</v>
+      </c>
+      <c r="B113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" t="s">
+        <v>228</v>
+      </c>
+      <c r="E113" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>41003</v>
+      </c>
+      <c r="B114" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>41003</v>
+      </c>
+      <c r="B115" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>41309</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>227</v>
+      </c>
+      <c r="E116" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>41309</v>
+      </c>
+      <c r="B117" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>50101</v>
+      </c>
+      <c r="B118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" t="s">
+        <v>227</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>50101</v>
+      </c>
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" t="s">
+        <v>228</v>
+      </c>
+      <c r="E119" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>50313</v>
+      </c>
+      <c r="B120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" t="s">
+        <v>227</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>50313</v>
+      </c>
+      <c r="B121" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" t="s">
+        <v>228</v>
+      </c>
+      <c r="E121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>50316</v>
+      </c>
+      <c r="B122" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>50316</v>
+      </c>
+      <c r="B123" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" t="s">
+        <v>228</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>50201</v>
+      </c>
+      <c r="B124" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" t="s">
+        <v>227</v>
+      </c>
+      <c r="E124" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>50201</v>
+      </c>
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+      <c r="C125" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>50203</v>
+      </c>
+      <c r="B126" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" t="s">
+        <v>227</v>
+      </c>
+      <c r="E126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>50203</v>
+      </c>
+      <c r="B127" t="s">
+        <v>160</v>
+      </c>
+      <c r="C127" t="s">
+        <v>228</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>50207</v>
+      </c>
+      <c r="B128" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>50207</v>
+      </c>
+      <c r="B129" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" t="s">
+        <v>228</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>50208</v>
+      </c>
+      <c r="B130" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" t="s">
+        <v>227</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>50208</v>
+      </c>
+      <c r="B131" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" t="s">
+        <v>228</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>50208</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" t="s">
+        <v>227</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>50208</v>
+      </c>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" t="s">
+        <v>228</v>
+      </c>
+      <c r="E133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>60101</v>
+      </c>
+      <c r="B134" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" t="s">
+        <v>227</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>60101</v>
+      </c>
+      <c r="B135" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" t="s">
+        <v>228</v>
+      </c>
+      <c r="E135" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>60103</v>
+      </c>
+      <c r="B136" t="s">
+        <v>164</v>
+      </c>
+      <c r="C136" t="s">
+        <v>227</v>
+      </c>
+      <c r="E136" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>60103</v>
+      </c>
+      <c r="B137" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>60105</v>
+      </c>
+      <c r="B138" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>60105</v>
+      </c>
+      <c r="B139" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>60705</v>
+      </c>
+      <c r="B140" t="s">
+        <v>166</v>
+      </c>
+      <c r="C140" t="s">
+        <v>227</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>60705</v>
+      </c>
+      <c r="B141" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" t="s">
+        <v>228</v>
+      </c>
+      <c r="E141" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>70201</v>
+      </c>
+      <c r="B142" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" t="s">
+        <v>227</v>
+      </c>
+      <c r="E142" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>70201</v>
+      </c>
+      <c r="B143" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" t="s">
+        <v>228</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>70301</v>
+      </c>
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" t="s">
+        <v>227</v>
+      </c>
+      <c r="E144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>70301</v>
+      </c>
+      <c r="B145" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" t="s">
+        <v>228</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>70308</v>
+      </c>
+      <c r="B146" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" t="s">
+        <v>227</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>70308</v>
+      </c>
+      <c r="B147" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147" t="s">
+        <v>228</v>
+      </c>
+      <c r="E147" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>130101</v>
+      </c>
+      <c r="B148" t="s">
+        <v>170</v>
+      </c>
+      <c r="C148" t="s">
+        <v>227</v>
+      </c>
+      <c r="E148" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>130101</v>
+      </c>
+      <c r="B149" t="s">
+        <v>170</v>
+      </c>
+      <c r="C149" t="s">
+        <v>228</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>130101</v>
+      </c>
+      <c r="B150" t="s">
+        <v>170</v>
+      </c>
+      <c r="C150" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>130101</v>
+      </c>
+      <c r="B151" t="s">
+        <v>170</v>
+      </c>
+      <c r="C151" t="s">
+        <v>228</v>
+      </c>
+      <c r="E151" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>130102</v>
+      </c>
+      <c r="B152" t="s">
+        <v>171</v>
+      </c>
+      <c r="C152" t="s">
+        <v>227</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>130102</v>
+      </c>
+      <c r="B153" t="s">
+        <v>171</v>
+      </c>
+      <c r="C153" t="s">
+        <v>228</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>130102</v>
+      </c>
+      <c r="B154" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" t="s">
+        <v>227</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>130102</v>
+      </c>
+      <c r="B155" t="s">
+        <v>171</v>
+      </c>
+      <c r="C155" t="s">
+        <v>228</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>130102</v>
+      </c>
+      <c r="B156" t="s">
+        <v>171</v>
+      </c>
+      <c r="C156" t="s">
+        <v>227</v>
+      </c>
+      <c r="E156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>130102</v>
+      </c>
+      <c r="B157" t="s">
+        <v>171</v>
+      </c>
+      <c r="C157" t="s">
+        <v>228</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>130105</v>
+      </c>
+      <c r="B158" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158" t="s">
+        <v>227</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>130105</v>
+      </c>
+      <c r="B159" t="s">
+        <v>172</v>
+      </c>
+      <c r="C159" t="s">
+        <v>228</v>
+      </c>
+      <c r="E159" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>130106</v>
+      </c>
+      <c r="B160" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" t="s">
+        <v>227</v>
+      </c>
+      <c r="E160" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>130106</v>
+      </c>
+      <c r="B161" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" t="s">
+        <v>228</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>130106</v>
+      </c>
+      <c r="B162" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" t="s">
+        <v>227</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>130106</v>
+      </c>
+      <c r="B163" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" t="s">
+        <v>228</v>
+      </c>
+      <c r="E163" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>130106</v>
+      </c>
+      <c r="B164" t="s">
+        <v>173</v>
+      </c>
+      <c r="C164" t="s">
+        <v>227</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>130106</v>
+      </c>
+      <c r="B165" t="s">
+        <v>173</v>
+      </c>
+      <c r="C165" t="s">
+        <v>228</v>
+      </c>
+      <c r="E165" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>130107</v>
+      </c>
+      <c r="B166" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" t="s">
+        <v>227</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>130107</v>
+      </c>
+      <c r="B167" t="s">
+        <v>174</v>
+      </c>
+      <c r="C167" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>130107</v>
+      </c>
+      <c r="B168" t="s">
+        <v>174</v>
+      </c>
+      <c r="C168" t="s">
+        <v>227</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>130107</v>
+      </c>
+      <c r="B169" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169" t="s">
+        <v>228</v>
+      </c>
+      <c r="E169" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>130108</v>
+      </c>
+      <c r="B170" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170" t="s">
+        <v>227</v>
+      </c>
+      <c r="E170" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>130108</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171" t="s">
+        <v>228</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>80201</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172" t="s">
+        <v>227</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>80201</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" t="s">
+        <v>228</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>130305</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174" t="s">
+        <v>227</v>
+      </c>
+      <c r="E174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>130305</v>
+      </c>
+      <c r="B175" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" t="s">
+        <v>228</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>130309</v>
+      </c>
+      <c r="B176" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" t="s">
+        <v>227</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>130309</v>
+      </c>
+      <c r="B177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" t="s">
+        <v>228</v>
+      </c>
+      <c r="E177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>130408</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" t="s">
+        <v>227</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>130408</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>228</v>
+      </c>
+      <c r="E179" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>80501</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>227</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+      <c r="E180" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>80501</v>
+      </c>
+      <c r="B181" t="s">
+        <v>180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>228</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>80502</v>
+      </c>
+      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>227</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>80502</v>
+      </c>
+      <c r="B183" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183" t="s">
+        <v>228</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>80504</v>
+      </c>
+      <c r="B184" t="s">
+        <v>182</v>
+      </c>
+      <c r="C184" t="s">
+        <v>227</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>80504</v>
+      </c>
+      <c r="B185" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" t="s">
+        <v>228</v>
+      </c>
+      <c r="E185" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>130701</v>
+      </c>
+      <c r="B186" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186" t="s">
+        <v>227</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>130701</v>
+      </c>
+      <c r="B187" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" t="s">
+        <v>228</v>
+      </c>
+      <c r="E187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>130701</v>
+      </c>
+      <c r="B188" t="s">
+        <v>183</v>
+      </c>
+      <c r="C188" t="s">
+        <v>227</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>130701</v>
+      </c>
+      <c r="B189" t="s">
+        <v>183</v>
+      </c>
+      <c r="C189" t="s">
+        <v>228</v>
+      </c>
+      <c r="E189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>130701</v>
+      </c>
+      <c r="B190" t="s">
+        <v>183</v>
+      </c>
+      <c r="C190" t="s">
+        <v>227</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>130701</v>
+      </c>
+      <c r="B191" t="s">
+        <v>183</v>
+      </c>
+      <c r="C191" t="s">
+        <v>228</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>130702</v>
+      </c>
+      <c r="B192" t="s">
+        <v>184</v>
+      </c>
+      <c r="C192" t="s">
+        <v>227</v>
+      </c>
+      <c r="E192" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>130702</v>
+      </c>
+      <c r="B193" t="s">
+        <v>184</v>
+      </c>
+      <c r="C193" t="s">
+        <v>228</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>130708</v>
+      </c>
+      <c r="B194" t="s">
+        <v>185</v>
+      </c>
+      <c r="C194" t="s">
+        <v>227</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>130708</v>
+      </c>
+      <c r="B195" t="s">
+        <v>185</v>
+      </c>
+      <c r="C195" t="s">
+        <v>228</v>
+      </c>
+      <c r="E195" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>80802</v>
+      </c>
+      <c r="B196" t="s">
+        <v>186</v>
+      </c>
+      <c r="C196" t="s">
+        <v>227</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>80802</v>
+      </c>
+      <c r="B197" t="s">
+        <v>186</v>
+      </c>
+      <c r="C197" t="s">
+        <v>228</v>
+      </c>
+      <c r="E197" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>80802</v>
+      </c>
+      <c r="B198" t="s">
+        <v>186</v>
+      </c>
+      <c r="C198" t="s">
+        <v>227</v>
+      </c>
+      <c r="E198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>80802</v>
+      </c>
+      <c r="B199" t="s">
+        <v>186</v>
+      </c>
+      <c r="C199" t="s">
+        <v>228</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>70311</v>
+      </c>
+      <c r="B200" t="s">
+        <v>187</v>
+      </c>
+      <c r="C200" t="s">
+        <v>227</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>70311</v>
+      </c>
+      <c r="B201" t="s">
+        <v>187</v>
+      </c>
+      <c r="C201" t="s">
+        <v>228</v>
+      </c>
+      <c r="E201" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>80804</v>
+      </c>
+      <c r="B202" t="s">
+        <v>188</v>
+      </c>
+      <c r="C202" t="s">
+        <v>227</v>
+      </c>
+      <c r="E202" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>80804</v>
+      </c>
+      <c r="B203" t="s">
+        <v>188</v>
+      </c>
+      <c r="C203" t="s">
+        <v>228</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>80804</v>
+      </c>
+      <c r="B204" t="s">
+        <v>188</v>
+      </c>
+      <c r="C204" t="s">
+        <v>227</v>
+      </c>
+      <c r="E204" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>80804</v>
+      </c>
+      <c r="B205" t="s">
+        <v>188</v>
+      </c>
+      <c r="C205" t="s">
+        <v>228</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>80804</v>
+      </c>
+      <c r="B206" t="s">
+        <v>188</v>
+      </c>
+      <c r="C206" t="s">
+        <v>227</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>80804</v>
+      </c>
+      <c r="B207" t="s">
+        <v>188</v>
+      </c>
+      <c r="C207" t="s">
+        <v>228</v>
+      </c>
+      <c r="E207" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>80804</v>
+      </c>
+      <c r="B208" t="s">
+        <v>188</v>
+      </c>
+      <c r="C208" t="s">
+        <v>227</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>80804</v>
+      </c>
+      <c r="B209" t="s">
+        <v>188</v>
+      </c>
+      <c r="C209" t="s">
+        <v>228</v>
+      </c>
+      <c r="E209" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>80804</v>
+      </c>
+      <c r="B210" t="s">
+        <v>188</v>
+      </c>
+      <c r="C210" t="s">
+        <v>227</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>80804</v>
+      </c>
+      <c r="B211" t="s">
+        <v>188</v>
+      </c>
+      <c r="C211" t="s">
+        <v>228</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>80806</v>
+      </c>
+      <c r="B212" t="s">
+        <v>189</v>
+      </c>
+      <c r="C212" t="s">
+        <v>227</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>80806</v>
+      </c>
+      <c r="B213" t="s">
+        <v>189</v>
+      </c>
+      <c r="C213" t="s">
+        <v>228</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>80806</v>
+      </c>
+      <c r="B214" t="s">
+        <v>189</v>
+      </c>
+      <c r="C214" t="s">
+        <v>227</v>
+      </c>
+      <c r="E214" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>80806</v>
+      </c>
+      <c r="B215" t="s">
+        <v>189</v>
+      </c>
+      <c r="C215" t="s">
+        <v>228</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>41302</v>
+      </c>
+      <c r="B216" t="s">
+        <v>190</v>
+      </c>
+      <c r="C216" t="s">
+        <v>227</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>41302</v>
+      </c>
+      <c r="B217" t="s">
+        <v>190</v>
+      </c>
+      <c r="C217" t="s">
+        <v>228</v>
+      </c>
+      <c r="E217" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>41302</v>
+      </c>
+      <c r="B218" t="s">
+        <v>190</v>
+      </c>
+      <c r="C218" t="s">
+        <v>227</v>
+      </c>
+      <c r="E218" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>41302</v>
+      </c>
+      <c r="B219" t="s">
+        <v>190</v>
+      </c>
+      <c r="C219" t="s">
+        <v>228</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>41302</v>
+      </c>
+      <c r="B220" t="s">
+        <v>190</v>
+      </c>
+      <c r="C220" t="s">
+        <v>227</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>41302</v>
+      </c>
+      <c r="B221" t="s">
+        <v>190</v>
+      </c>
+      <c r="C221" t="s">
+        <v>228</v>
+      </c>
+      <c r="E221" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>80808</v>
+      </c>
+      <c r="B222" t="s">
+        <v>191</v>
+      </c>
+      <c r="C222" t="s">
+        <v>227</v>
+      </c>
+      <c r="E222" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>80808</v>
+      </c>
+      <c r="B223" t="s">
+        <v>191</v>
+      </c>
+      <c r="C223" t="s">
+        <v>228</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>80808</v>
+      </c>
+      <c r="B224" t="s">
+        <v>191</v>
+      </c>
+      <c r="C224" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>80808</v>
+      </c>
+      <c r="B225" t="s">
+        <v>191</v>
+      </c>
+      <c r="C225" t="s">
+        <v>228</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>80808</v>
+      </c>
+      <c r="B226" t="s">
+        <v>191</v>
+      </c>
+      <c r="C226" t="s">
+        <v>227</v>
+      </c>
+      <c r="E226" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>80808</v>
+      </c>
+      <c r="B227" t="s">
+        <v>191</v>
+      </c>
+      <c r="C227" t="s">
+        <v>228</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>80809</v>
+      </c>
+      <c r="B228" t="s">
+        <v>192</v>
+      </c>
+      <c r="C228" t="s">
+        <v>227</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>80809</v>
+      </c>
+      <c r="B229" t="s">
+        <v>192</v>
+      </c>
+      <c r="C229" t="s">
+        <v>228</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>80809</v>
+      </c>
+      <c r="B230" t="s">
+        <v>192</v>
+      </c>
+      <c r="C230" t="s">
+        <v>227</v>
+      </c>
+      <c r="E230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>80809</v>
+      </c>
+      <c r="B231" t="s">
+        <v>192</v>
+      </c>
+      <c r="C231" t="s">
+        <v>228</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>80809</v>
+      </c>
+      <c r="B232" t="s">
+        <v>192</v>
+      </c>
+      <c r="C232" t="s">
+        <v>227</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>80809</v>
+      </c>
+      <c r="B233" t="s">
+        <v>192</v>
+      </c>
+      <c r="C233" t="s">
+        <v>228</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>80810</v>
+      </c>
+      <c r="B234" t="s">
+        <v>193</v>
+      </c>
+      <c r="C234" t="s">
+        <v>227</v>
+      </c>
+      <c r="E234" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>80810</v>
+      </c>
+      <c r="B235" t="s">
+        <v>193</v>
+      </c>
+      <c r="C235" t="s">
+        <v>228</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>80810</v>
+      </c>
+      <c r="B236" t="s">
+        <v>193</v>
+      </c>
+      <c r="C236" t="s">
+        <v>227</v>
+      </c>
+      <c r="E236" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>80810</v>
+      </c>
+      <c r="B237" t="s">
+        <v>193</v>
+      </c>
+      <c r="C237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>80811</v>
+      </c>
+      <c r="B238" t="s">
+        <v>194</v>
+      </c>
+      <c r="C238" t="s">
+        <v>227</v>
+      </c>
+      <c r="E238" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>80811</v>
+      </c>
+      <c r="B239" t="s">
+        <v>194</v>
+      </c>
+      <c r="C239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>80811</v>
+      </c>
+      <c r="B240" t="s">
+        <v>194</v>
+      </c>
+      <c r="C240" t="s">
+        <v>227</v>
+      </c>
+      <c r="E240" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>80811</v>
+      </c>
+      <c r="B241" t="s">
+        <v>194</v>
+      </c>
+      <c r="C241" t="s">
+        <v>228</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>80811</v>
+      </c>
+      <c r="B242" t="s">
+        <v>194</v>
+      </c>
+      <c r="C242" t="s">
+        <v>227</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>80811</v>
+      </c>
+      <c r="B243" t="s">
+        <v>194</v>
+      </c>
+      <c r="C243" t="s">
+        <v>228</v>
+      </c>
+      <c r="E243" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>80811</v>
+      </c>
+      <c r="B244" t="s">
+        <v>194</v>
+      </c>
+      <c r="C244" t="s">
+        <v>227</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>80811</v>
+      </c>
+      <c r="B245" t="s">
+        <v>194</v>
+      </c>
+      <c r="C245" t="s">
+        <v>228</v>
+      </c>
+      <c r="E245" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>80811</v>
+      </c>
+      <c r="B246" t="s">
+        <v>194</v>
+      </c>
+      <c r="C246" t="s">
+        <v>227</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>80811</v>
+      </c>
+      <c r="B247" t="s">
+        <v>194</v>
+      </c>
+      <c r="C247" t="s">
+        <v>228</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>20206</v>
+      </c>
+      <c r="B248" t="s">
+        <v>195</v>
+      </c>
+      <c r="C248" t="s">
+        <v>227</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>20206</v>
+      </c>
+      <c r="B249" t="s">
+        <v>195</v>
+      </c>
+      <c r="C249" t="s">
+        <v>228</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>20206</v>
+      </c>
+      <c r="B250" t="s">
+        <v>195</v>
+      </c>
+      <c r="C250" t="s">
+        <v>227</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>20206</v>
+      </c>
+      <c r="B251" t="s">
+        <v>195</v>
+      </c>
+      <c r="C251" t="s">
+        <v>228</v>
+      </c>
+      <c r="E251" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>20206</v>
+      </c>
+      <c r="B252" t="s">
+        <v>195</v>
+      </c>
+      <c r="C252" t="s">
+        <v>227</v>
+      </c>
+      <c r="D252">
+        <v>3</v>
+      </c>
+      <c r="E252" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>20206</v>
+      </c>
+      <c r="B253" t="s">
+        <v>195</v>
+      </c>
+      <c r="C253" t="s">
+        <v>228</v>
+      </c>
+      <c r="D253">
+        <v>4</v>
+      </c>
+      <c r="E253" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>20206</v>
+      </c>
+      <c r="B254" t="s">
+        <v>195</v>
+      </c>
+      <c r="C254" t="s">
+        <v>227</v>
+      </c>
+      <c r="E254" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>20206</v>
+      </c>
+      <c r="B255" t="s">
+        <v>195</v>
+      </c>
+      <c r="C255" t="s">
+        <v>228</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>20206</v>
+      </c>
+      <c r="B256" t="s">
+        <v>195</v>
+      </c>
+      <c r="C256" t="s">
+        <v>227</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>20206</v>
+      </c>
+      <c r="B257" t="s">
+        <v>195</v>
+      </c>
+      <c r="C257" t="s">
+        <v>228</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>40307</v>
+      </c>
+      <c r="B258" t="s">
+        <v>151</v>
+      </c>
+      <c r="C258" t="s">
+        <v>227</v>
+      </c>
+      <c r="D258">
+        <v>6</v>
+      </c>
+      <c r="E258" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>40307</v>
+      </c>
+      <c r="B259" t="s">
+        <v>151</v>
+      </c>
+      <c r="C259" t="s">
+        <v>228</v>
+      </c>
+      <c r="D259">
+        <v>4</v>
+      </c>
+      <c r="E259" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>40307</v>
+      </c>
+      <c r="B260" t="s">
+        <v>151</v>
+      </c>
+      <c r="C260" t="s">
+        <v>227</v>
+      </c>
+      <c r="E260" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>40307</v>
+      </c>
+      <c r="B261" t="s">
+        <v>151</v>
+      </c>
+      <c r="C261" t="s">
+        <v>228</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>40307</v>
+      </c>
+      <c r="B262" t="s">
+        <v>151</v>
+      </c>
+      <c r="C262" t="s">
+        <v>227</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>40307</v>
+      </c>
+      <c r="B263" t="s">
+        <v>151</v>
+      </c>
+      <c r="C263" t="s">
+        <v>228</v>
+      </c>
+      <c r="E263" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>40307</v>
+      </c>
+      <c r="B264" t="s">
+        <v>151</v>
+      </c>
+      <c r="C264" t="s">
+        <v>227</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>40307</v>
+      </c>
+      <c r="B265" t="s">
+        <v>151</v>
+      </c>
+      <c r="C265" t="s">
+        <v>228</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>80814</v>
+      </c>
+      <c r="B266" t="s">
+        <v>196</v>
+      </c>
+      <c r="C266" t="s">
+        <v>227</v>
+      </c>
+      <c r="E266" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>80814</v>
+      </c>
+      <c r="B267" t="s">
+        <v>196</v>
+      </c>
+      <c r="C267" t="s">
+        <v>228</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>80814</v>
+      </c>
+      <c r="B268" t="s">
+        <v>196</v>
+      </c>
+      <c r="C268" t="s">
+        <v>227</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>80814</v>
+      </c>
+      <c r="B269" t="s">
+        <v>196</v>
+      </c>
+      <c r="C269" t="s">
+        <v>228</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
+      </c>
+      <c r="E269" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>80824</v>
+      </c>
+      <c r="B270" t="s">
+        <v>197</v>
+      </c>
+      <c r="C270" t="s">
+        <v>227</v>
+      </c>
+      <c r="E270" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>80824</v>
+      </c>
+      <c r="B271" t="s">
+        <v>197</v>
+      </c>
+      <c r="C271" t="s">
+        <v>228</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>80824</v>
+      </c>
+      <c r="B272" t="s">
+        <v>197</v>
+      </c>
+      <c r="C272" t="s">
+        <v>227</v>
+      </c>
+      <c r="D272">
+        <v>7</v>
+      </c>
+      <c r="E272" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>80824</v>
+      </c>
+      <c r="B273" t="s">
+        <v>197</v>
+      </c>
+      <c r="C273" t="s">
+        <v>228</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+      <c r="E273" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>80816</v>
+      </c>
+      <c r="B274" t="s">
+        <v>198</v>
+      </c>
+      <c r="C274" t="s">
+        <v>227</v>
+      </c>
+      <c r="E274" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>80816</v>
+      </c>
+      <c r="B275" t="s">
+        <v>198</v>
+      </c>
+      <c r="C275" t="s">
+        <v>228</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>80816</v>
+      </c>
+      <c r="B276" t="s">
+        <v>198</v>
+      </c>
+      <c r="C276" t="s">
+        <v>227</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>80816</v>
+      </c>
+      <c r="B277" t="s">
+        <v>198</v>
+      </c>
+      <c r="C277" t="s">
+        <v>228</v>
+      </c>
+      <c r="E277" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>80816</v>
+      </c>
+      <c r="B278" t="s">
+        <v>198</v>
+      </c>
+      <c r="C278" t="s">
+        <v>227</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>80816</v>
+      </c>
+      <c r="B279" t="s">
+        <v>198</v>
+      </c>
+      <c r="C279" t="s">
+        <v>228</v>
+      </c>
+      <c r="E279" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>80817</v>
+      </c>
+      <c r="B280" t="s">
+        <v>199</v>
+      </c>
+      <c r="C280" t="s">
+        <v>227</v>
+      </c>
+      <c r="D280">
+        <v>3</v>
+      </c>
+      <c r="E280" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>80817</v>
+      </c>
+      <c r="B281" t="s">
+        <v>199</v>
+      </c>
+      <c r="C281" t="s">
+        <v>228</v>
+      </c>
+      <c r="E281" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>80817</v>
+      </c>
+      <c r="B282" t="s">
+        <v>199</v>
+      </c>
+      <c r="C282" t="s">
+        <v>227</v>
+      </c>
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>80817</v>
+      </c>
+      <c r="B283" t="s">
+        <v>199</v>
+      </c>
+      <c r="C283" t="s">
+        <v>228</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>80819</v>
+      </c>
+      <c r="B284" t="s">
+        <v>200</v>
+      </c>
+      <c r="C284" t="s">
+        <v>227</v>
+      </c>
+      <c r="E284" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>80819</v>
+      </c>
+      <c r="B285" t="s">
+        <v>200</v>
+      </c>
+      <c r="C285" t="s">
+        <v>228</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>80819</v>
+      </c>
+      <c r="B286" t="s">
+        <v>200</v>
+      </c>
+      <c r="C286" t="s">
+        <v>227</v>
+      </c>
+      <c r="D286">
+        <v>7</v>
+      </c>
+      <c r="E286" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>80819</v>
+      </c>
+      <c r="B287" t="s">
+        <v>200</v>
+      </c>
+      <c r="C287" t="s">
+        <v>228</v>
+      </c>
+      <c r="D287">
+        <v>7</v>
+      </c>
+      <c r="E287" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>80819</v>
+      </c>
+      <c r="B288" t="s">
+        <v>200</v>
+      </c>
+      <c r="C288" t="s">
+        <v>227</v>
+      </c>
+      <c r="D288">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>80819</v>
+      </c>
+      <c r="B289" t="s">
+        <v>200</v>
+      </c>
+      <c r="C289" t="s">
+        <v>228</v>
+      </c>
+      <c r="E289" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>80820</v>
+      </c>
+      <c r="B290" t="s">
+        <v>201</v>
+      </c>
+      <c r="C290" t="s">
+        <v>227</v>
+      </c>
+      <c r="D290">
+        <v>3</v>
+      </c>
+      <c r="E290" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>80820</v>
+      </c>
+      <c r="B291" t="s">
+        <v>201</v>
+      </c>
+      <c r="C291" t="s">
+        <v>228</v>
+      </c>
+      <c r="D291">
+        <v>4</v>
+      </c>
+      <c r="E291" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>80821</v>
+      </c>
+      <c r="B292" t="s">
+        <v>202</v>
+      </c>
+      <c r="C292" t="s">
+        <v>227</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>80821</v>
+      </c>
+      <c r="B293" t="s">
+        <v>202</v>
+      </c>
+      <c r="C293" t="s">
+        <v>228</v>
+      </c>
+      <c r="E293" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>80821</v>
+      </c>
+      <c r="B294" t="s">
+        <v>202</v>
+      </c>
+      <c r="C294" t="s">
+        <v>227</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>80821</v>
+      </c>
+      <c r="B295" t="s">
+        <v>202</v>
+      </c>
+      <c r="C295" t="s">
+        <v>228</v>
+      </c>
+      <c r="D295">
+        <v>8</v>
+      </c>
+      <c r="E295" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>80822</v>
+      </c>
+      <c r="B296" t="s">
+        <v>203</v>
+      </c>
+      <c r="C296" t="s">
+        <v>227</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
+      </c>
+      <c r="E296" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>80822</v>
+      </c>
+      <c r="B297" t="s">
+        <v>203</v>
+      </c>
+      <c r="C297" t="s">
+        <v>228</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+      <c r="E297" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>80822</v>
+      </c>
+      <c r="B298" t="s">
+        <v>203</v>
+      </c>
+      <c r="C298" t="s">
+        <v>227</v>
+      </c>
+      <c r="E298" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>80822</v>
+      </c>
+      <c r="B299" t="s">
+        <v>203</v>
+      </c>
+      <c r="C299" t="s">
+        <v>228</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+      <c r="E299" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>80822</v>
+      </c>
+      <c r="B300" t="s">
+        <v>203</v>
+      </c>
+      <c r="C300" t="s">
+        <v>227</v>
+      </c>
+      <c r="E300" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>80822</v>
+      </c>
+      <c r="B301" t="s">
+        <v>203</v>
+      </c>
+      <c r="C301" t="s">
+        <v>228</v>
+      </c>
+      <c r="D301">
+        <v>3</v>
+      </c>
+      <c r="E301" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>80823</v>
+      </c>
+      <c r="B302" t="s">
+        <v>204</v>
+      </c>
+      <c r="C302" t="s">
+        <v>227</v>
+      </c>
+      <c r="E302" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>80823</v>
+      </c>
+      <c r="B303" t="s">
+        <v>204</v>
+      </c>
+      <c r="C303" t="s">
+        <v>228</v>
+      </c>
+      <c r="D303">
+        <v>5</v>
+      </c>
+      <c r="E303" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>80823</v>
+      </c>
+      <c r="B304" t="s">
+        <v>204</v>
+      </c>
+      <c r="C304" t="s">
+        <v>227</v>
+      </c>
+      <c r="E304" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>80823</v>
+      </c>
+      <c r="B305" t="s">
+        <v>204</v>
+      </c>
+      <c r="C305" t="s">
+        <v>228</v>
+      </c>
+      <c r="D305">
+        <v>4</v>
+      </c>
+      <c r="E305" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>80823</v>
+      </c>
+      <c r="B306" t="s">
+        <v>204</v>
+      </c>
+      <c r="C306" t="s">
+        <v>227</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>80823</v>
+      </c>
+      <c r="B307" t="s">
+        <v>204</v>
+      </c>
+      <c r="C307" t="s">
+        <v>228</v>
+      </c>
+      <c r="E307" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>130901</v>
+      </c>
+      <c r="B308" t="s">
+        <v>205</v>
+      </c>
+      <c r="C308" t="s">
+        <v>227</v>
+      </c>
+      <c r="E308" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>130901</v>
+      </c>
+      <c r="B309" t="s">
+        <v>205</v>
+      </c>
+      <c r="C309" t="s">
+        <v>228</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+      <c r="E309" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>81001</v>
+      </c>
+      <c r="B310" t="s">
+        <v>206</v>
+      </c>
+      <c r="C310" t="s">
+        <v>227</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+      <c r="E310" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>81001</v>
+      </c>
+      <c r="B311" t="s">
+        <v>206</v>
+      </c>
+      <c r="C311" t="s">
+        <v>228</v>
+      </c>
+      <c r="E311" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>81001</v>
+      </c>
+      <c r="B312" t="s">
+        <v>206</v>
+      </c>
+      <c r="C312" t="s">
+        <v>227</v>
+      </c>
+      <c r="D312">
+        <v>7</v>
+      </c>
+      <c r="E312" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>81001</v>
+      </c>
+      <c r="B313" t="s">
+        <v>206</v>
+      </c>
+      <c r="C313" t="s">
+        <v>228</v>
+      </c>
+      <c r="D313">
+        <v>3</v>
+      </c>
+      <c r="E313" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>81001</v>
+      </c>
+      <c r="B314" t="s">
+        <v>206</v>
+      </c>
+      <c r="C314" t="s">
+        <v>227</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>81001</v>
+      </c>
+      <c r="B315" t="s">
+        <v>206</v>
+      </c>
+      <c r="C315" t="s">
+        <v>228</v>
+      </c>
+      <c r="E315" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>81001</v>
+      </c>
+      <c r="B316" t="s">
+        <v>206</v>
+      </c>
+      <c r="C316" t="s">
+        <v>227</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>81001</v>
+      </c>
+      <c r="B317" t="s">
+        <v>206</v>
+      </c>
+      <c r="C317" t="s">
+        <v>228</v>
+      </c>
+      <c r="E317" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>81001</v>
+      </c>
+      <c r="B318" t="s">
+        <v>206</v>
+      </c>
+      <c r="C318" t="s">
+        <v>227</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>81001</v>
+      </c>
+      <c r="B319" t="s">
+        <v>206</v>
+      </c>
+      <c r="C319" t="s">
+        <v>228</v>
+      </c>
+      <c r="E319" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>81002</v>
+      </c>
+      <c r="B320" t="s">
+        <v>207</v>
+      </c>
+      <c r="C320" t="s">
+        <v>227</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>81002</v>
+      </c>
+      <c r="B321" t="s">
+        <v>207</v>
+      </c>
+      <c r="C321" t="s">
+        <v>228</v>
+      </c>
+      <c r="E321" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>81002</v>
+      </c>
+      <c r="B322" t="s">
+        <v>207</v>
+      </c>
+      <c r="C322" t="s">
+        <v>227</v>
+      </c>
+      <c r="E322" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>81002</v>
+      </c>
+      <c r="B323" t="s">
+        <v>207</v>
+      </c>
+      <c r="C323" t="s">
+        <v>228</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>81002</v>
+      </c>
+      <c r="B324" t="s">
+        <v>207</v>
+      </c>
+      <c r="C324" t="s">
+        <v>227</v>
+      </c>
+      <c r="D324">
+        <v>10</v>
+      </c>
+      <c r="E324" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>81002</v>
+      </c>
+      <c r="B325" t="s">
+        <v>207</v>
+      </c>
+      <c r="C325" t="s">
+        <v>228</v>
+      </c>
+      <c r="D325">
+        <v>7</v>
+      </c>
+      <c r="E325" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>81002</v>
+      </c>
+      <c r="B326" t="s">
+        <v>207</v>
+      </c>
+      <c r="C326" t="s">
+        <v>227</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+      <c r="E326" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>81002</v>
+      </c>
+      <c r="B327" t="s">
+        <v>207</v>
+      </c>
+      <c r="C327" t="s">
+        <v>228</v>
+      </c>
+      <c r="D327">
+        <v>2</v>
+      </c>
+      <c r="E327" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>81002</v>
+      </c>
+      <c r="B328" t="s">
+        <v>207</v>
+      </c>
+      <c r="C328" t="s">
+        <v>227</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>81002</v>
+      </c>
+      <c r="B329" t="s">
+        <v>207</v>
+      </c>
+      <c r="C329" t="s">
+        <v>228</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>81003</v>
+      </c>
+      <c r="B330" t="s">
+        <v>208</v>
+      </c>
+      <c r="C330" t="s">
+        <v>227</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>81003</v>
+      </c>
+      <c r="B331" t="s">
+        <v>208</v>
+      </c>
+      <c r="C331" t="s">
+        <v>228</v>
+      </c>
+      <c r="E331" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>81003</v>
+      </c>
+      <c r="B332" t="s">
+        <v>208</v>
+      </c>
+      <c r="C332" t="s">
+        <v>227</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+      <c r="E332" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>81003</v>
+      </c>
+      <c r="B333" t="s">
+        <v>208</v>
+      </c>
+      <c r="C333" t="s">
+        <v>228</v>
+      </c>
+      <c r="E333" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>81004</v>
+      </c>
+      <c r="B334" t="s">
+        <v>209</v>
+      </c>
+      <c r="C334" t="s">
+        <v>227</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+      <c r="E334" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>81004</v>
+      </c>
+      <c r="B335" t="s">
+        <v>209</v>
+      </c>
+      <c r="C335" t="s">
+        <v>228</v>
+      </c>
+      <c r="E335" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>81005</v>
+      </c>
+      <c r="B336" t="s">
+        <v>210</v>
+      </c>
+      <c r="C336" t="s">
+        <v>227</v>
+      </c>
+      <c r="E336" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>81005</v>
+      </c>
+      <c r="B337" t="s">
+        <v>210</v>
+      </c>
+      <c r="C337" t="s">
+        <v>228</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+      <c r="E337" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>81005</v>
+      </c>
+      <c r="B338" t="s">
+        <v>210</v>
+      </c>
+      <c r="C338" t="s">
+        <v>227</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>81005</v>
+      </c>
+      <c r="B339" t="s">
+        <v>210</v>
+      </c>
+      <c r="C339" t="s">
+        <v>228</v>
+      </c>
+      <c r="E339" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>81005</v>
+      </c>
+      <c r="B340" t="s">
+        <v>210</v>
+      </c>
+      <c r="C340" t="s">
+        <v>227</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>81005</v>
+      </c>
+      <c r="B341" t="s">
+        <v>210</v>
+      </c>
+      <c r="C341" t="s">
+        <v>228</v>
+      </c>
+      <c r="E341" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>81005</v>
+      </c>
+      <c r="B342" t="s">
+        <v>210</v>
+      </c>
+      <c r="C342" t="s">
+        <v>227</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>81005</v>
+      </c>
+      <c r="B343" t="s">
+        <v>210</v>
+      </c>
+      <c r="C343" t="s">
+        <v>228</v>
+      </c>
+      <c r="E343" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>81006</v>
+      </c>
+      <c r="B344" t="s">
+        <v>211</v>
+      </c>
+      <c r="C344" t="s">
+        <v>227</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+      <c r="E344" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>81006</v>
+      </c>
+      <c r="B345" t="s">
+        <v>211</v>
+      </c>
+      <c r="C345" t="s">
+        <v>228</v>
+      </c>
+      <c r="E345" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>81006</v>
+      </c>
+      <c r="B346" t="s">
+        <v>211</v>
+      </c>
+      <c r="C346" t="s">
+        <v>227</v>
+      </c>
+      <c r="E346" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>81006</v>
+      </c>
+      <c r="B347" t="s">
+        <v>211</v>
+      </c>
+      <c r="C347" t="s">
+        <v>228</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>81007</v>
+      </c>
+      <c r="B348" t="s">
+        <v>212</v>
+      </c>
+      <c r="C348" t="s">
+        <v>227</v>
+      </c>
+      <c r="E348" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>81007</v>
+      </c>
+      <c r="B349" t="s">
+        <v>212</v>
+      </c>
+      <c r="C349" t="s">
+        <v>228</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>81007</v>
+      </c>
+      <c r="B350" t="s">
+        <v>212</v>
+      </c>
+      <c r="C350" t="s">
+        <v>227</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+      <c r="E350" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>81007</v>
+      </c>
+      <c r="B351" t="s">
+        <v>212</v>
+      </c>
+      <c r="C351" t="s">
+        <v>228</v>
+      </c>
+      <c r="E351" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>81008</v>
+      </c>
+      <c r="B352" t="s">
+        <v>213</v>
+      </c>
+      <c r="C352" t="s">
+        <v>227</v>
+      </c>
+      <c r="D352">
+        <v>4</v>
+      </c>
+      <c r="E352" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>81008</v>
+      </c>
+      <c r="B353" t="s">
+        <v>213</v>
+      </c>
+      <c r="C353" t="s">
+        <v>228</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>81008</v>
+      </c>
+      <c r="B354" t="s">
+        <v>213</v>
+      </c>
+      <c r="C354" t="s">
+        <v>227</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>81008</v>
+      </c>
+      <c r="B355" t="s">
+        <v>213</v>
+      </c>
+      <c r="C355" t="s">
+        <v>228</v>
+      </c>
+      <c r="E355" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>81009</v>
+      </c>
+      <c r="B356" t="s">
+        <v>214</v>
+      </c>
+      <c r="C356" t="s">
+        <v>227</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>81009</v>
+      </c>
+      <c r="B357" t="s">
+        <v>214</v>
+      </c>
+      <c r="C357" t="s">
+        <v>228</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>81101</v>
+      </c>
+      <c r="B358" t="s">
+        <v>215</v>
+      </c>
+      <c r="C358" t="s">
+        <v>227</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>81101</v>
+      </c>
+      <c r="B359" t="s">
+        <v>215</v>
+      </c>
+      <c r="C359" t="s">
+        <v>228</v>
+      </c>
+      <c r="E359" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>91001</v>
+      </c>
+      <c r="B360" t="s">
+        <v>216</v>
+      </c>
+      <c r="C360" t="s">
+        <v>227</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>91001</v>
+      </c>
+      <c r="B361" t="s">
+        <v>216</v>
+      </c>
+      <c r="C361" t="s">
+        <v>228</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>91001</v>
+      </c>
+      <c r="B362" t="s">
+        <v>216</v>
+      </c>
+      <c r="C362" t="s">
+        <v>227</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>91001</v>
+      </c>
+      <c r="B363" t="s">
+        <v>216</v>
+      </c>
+      <c r="C363" t="s">
+        <v>228</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>91007</v>
+      </c>
+      <c r="B364" t="s">
+        <v>217</v>
+      </c>
+      <c r="C364" t="s">
+        <v>227</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>91007</v>
+      </c>
+      <c r="B365" t="s">
+        <v>217</v>
+      </c>
+      <c r="C365" t="s">
+        <v>228</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>40708</v>
+      </c>
+      <c r="B366" t="s">
+        <v>152</v>
+      </c>
+      <c r="C366" t="s">
+        <v>227</v>
+      </c>
+      <c r="E366" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>40708</v>
+      </c>
+      <c r="B367" t="s">
+        <v>152</v>
+      </c>
+      <c r="C367" t="s">
+        <v>228</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>91009</v>
+      </c>
+      <c r="B368" t="s">
+        <v>218</v>
+      </c>
+      <c r="C368" t="s">
+        <v>227</v>
+      </c>
+      <c r="E368" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>91009</v>
+      </c>
+      <c r="B369" t="s">
+        <v>218</v>
+      </c>
+      <c r="C369" t="s">
+        <v>228</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>91010</v>
+      </c>
+      <c r="B370" t="s">
+        <v>219</v>
+      </c>
+      <c r="C370" t="s">
+        <v>227</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>91010</v>
+      </c>
+      <c r="B371" t="s">
+        <v>219</v>
+      </c>
+      <c r="C371" t="s">
+        <v>228</v>
+      </c>
+      <c r="E371" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>100102</v>
+      </c>
+      <c r="B372" t="s">
+        <v>220</v>
+      </c>
+      <c r="C372" t="s">
+        <v>227</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+      <c r="E372" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>100102</v>
+      </c>
+      <c r="B373" t="s">
+        <v>220</v>
+      </c>
+      <c r="C373" t="s">
+        <v>228</v>
+      </c>
+      <c r="E373" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>100102</v>
+      </c>
+      <c r="B374" t="s">
+        <v>220</v>
+      </c>
+      <c r="C374" t="s">
+        <v>227</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>100102</v>
+      </c>
+      <c r="B375" t="s">
+        <v>220</v>
+      </c>
+      <c r="C375" t="s">
+        <v>228</v>
+      </c>
+      <c r="E375" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>100102</v>
+      </c>
+      <c r="B376" t="s">
+        <v>220</v>
+      </c>
+      <c r="C376" t="s">
+        <v>227</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>100102</v>
+      </c>
+      <c r="B377" t="s">
+        <v>220</v>
+      </c>
+      <c r="C377" t="s">
+        <v>228</v>
+      </c>
+      <c r="E377" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>100103</v>
+      </c>
+      <c r="B378" t="s">
+        <v>221</v>
+      </c>
+      <c r="C378" t="s">
+        <v>227</v>
+      </c>
+      <c r="E378" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>100103</v>
+      </c>
+      <c r="B379" t="s">
+        <v>221</v>
+      </c>
+      <c r="C379" t="s">
+        <v>228</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+      <c r="E379" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>110102</v>
+      </c>
+      <c r="B380" t="s">
+        <v>222</v>
+      </c>
+      <c r="C380" t="s">
+        <v>227</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>110102</v>
+      </c>
+      <c r="B381" t="s">
+        <v>222</v>
+      </c>
+      <c r="C381" t="s">
+        <v>228</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>110103</v>
+      </c>
+      <c r="B382" t="s">
+        <v>223</v>
+      </c>
+      <c r="C382" t="s">
+        <v>227</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>110103</v>
+      </c>
+      <c r="B383" t="s">
+        <v>223</v>
+      </c>
+      <c r="C383" t="s">
+        <v>228</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>120101</v>
+      </c>
+      <c r="B384" t="s">
+        <v>224</v>
+      </c>
+      <c r="C384" t="s">
+        <v>227</v>
+      </c>
+      <c r="E384" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>120101</v>
+      </c>
+      <c r="B385" t="s">
+        <v>224</v>
+      </c>
+      <c r="C385" t="s">
+        <v>228</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>120505</v>
+      </c>
+      <c r="B386" t="s">
+        <v>225</v>
+      </c>
+      <c r="C386" t="s">
+        <v>227</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>120505</v>
+      </c>
+      <c r="B387" t="s">
+        <v>225</v>
+      </c>
+      <c r="C387" t="s">
+        <v>228</v>
+      </c>
+      <c r="E387" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>120905</v>
+      </c>
+      <c r="B388" t="s">
+        <v>226</v>
+      </c>
+      <c r="C388" t="s">
+        <v>227</v>
+      </c>
+      <c r="D388">
+        <v>3</v>
+      </c>
+      <c r="E388" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>120905</v>
+      </c>
+      <c r="B389" t="s">
+        <v>226</v>
+      </c>
+      <c r="C389" t="s">
+        <v>228</v>
+      </c>
+      <c r="D389">
+        <v>2</v>
+      </c>
+      <c r="E389" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>120905</v>
+      </c>
+      <c r="B390" t="s">
+        <v>226</v>
+      </c>
+      <c r="C390" t="s">
+        <v>227</v>
+      </c>
+      <c r="D390">
+        <v>41</v>
+      </c>
+      <c r="E390" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>120905</v>
+      </c>
+      <c r="B391" t="s">
+        <v>226</v>
+      </c>
+      <c r="C391" t="s">
+        <v>228</v>
+      </c>
+      <c r="D391">
+        <v>48</v>
+      </c>
+      <c r="E391" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>120905</v>
+      </c>
+      <c r="B392" t="s">
+        <v>226</v>
+      </c>
+      <c r="C392" t="s">
+        <v>227</v>
+      </c>
+      <c r="D392">
+        <v>11</v>
+      </c>
+      <c r="E392" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>120905</v>
+      </c>
+      <c r="B393" t="s">
+        <v>226</v>
+      </c>
+      <c r="C393" t="s">
+        <v>228</v>
+      </c>
+      <c r="D393">
+        <v>11</v>
+      </c>
+      <c r="E393" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>120905</v>
+      </c>
+      <c r="B394" t="s">
+        <v>226</v>
+      </c>
+      <c r="C394" t="s">
+        <v>227</v>
+      </c>
+      <c r="D394">
+        <v>151</v>
+      </c>
+      <c r="E394" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>120905</v>
+      </c>
+      <c r="B395" t="s">
+        <v>226</v>
+      </c>
+      <c r="C395" t="s">
+        <v>228</v>
+      </c>
+      <c r="D395">
+        <v>108</v>
+      </c>
+      <c r="E395" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>120905</v>
+      </c>
+      <c r="B396" t="s">
+        <v>226</v>
+      </c>
+      <c r="C396" t="s">
+        <v>227</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+      <c r="E396" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>120905</v>
+      </c>
+      <c r="B397" t="s">
+        <v>226</v>
+      </c>
+      <c r="C397" t="s">
+        <v>228</v>
+      </c>
+      <c r="D397">
+        <v>5</v>
+      </c>
+      <c r="E397" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>120905</v>
+      </c>
+      <c r="B398" t="s">
+        <v>226</v>
+      </c>
+      <c r="C398" t="s">
+        <v>227</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>120905</v>
+      </c>
+      <c r="B399" t="s">
+        <v>226</v>
+      </c>
+      <c r="C399" t="s">
+        <v>228</v>
+      </c>
+      <c r="D399">
+        <v>6</v>
+      </c>
+      <c r="E399" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>120905</v>
+      </c>
+      <c r="B400" t="s">
+        <v>226</v>
+      </c>
+      <c r="C400" t="s">
+        <v>227</v>
+      </c>
+      <c r="D400">
+        <v>4</v>
+      </c>
+      <c r="E400" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>120905</v>
+      </c>
+      <c r="B401" t="s">
+        <v>226</v>
+      </c>
+      <c r="C401" t="s">
+        <v>228</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>120905</v>
+      </c>
+      <c r="B402" t="s">
+        <v>226</v>
+      </c>
+      <c r="C402" t="s">
+        <v>227</v>
+      </c>
+      <c r="D402">
+        <v>6</v>
+      </c>
+      <c r="E402" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>120905</v>
+      </c>
+      <c r="B403" t="s">
+        <v>226</v>
+      </c>
+      <c r="C403" t="s">
+        <v>228</v>
+      </c>
+      <c r="D403">
+        <v>3</v>
+      </c>
+      <c r="E403" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>120905</v>
+      </c>
+      <c r="B404" t="s">
+        <v>226</v>
+      </c>
+      <c r="C404" t="s">
+        <v>227</v>
+      </c>
+      <c r="D404">
+        <v>6</v>
+      </c>
+      <c r="E404" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>120905</v>
+      </c>
+      <c r="B405" t="s">
+        <v>226</v>
+      </c>
+      <c r="C405" t="s">
+        <v>228</v>
+      </c>
+      <c r="D405">
+        <v>4</v>
+      </c>
+      <c r="E405" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>120905</v>
+      </c>
+      <c r="B406" t="s">
+        <v>226</v>
+      </c>
+      <c r="C406" t="s">
+        <v>227</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+      <c r="E406" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>120905</v>
+      </c>
+      <c r="B407" t="s">
+        <v>226</v>
+      </c>
+      <c r="C407" t="s">
+        <v>228</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>120905</v>
+      </c>
+      <c r="B408" t="s">
+        <v>226</v>
+      </c>
+      <c r="C408" t="s">
+        <v>227</v>
+      </c>
+      <c r="D408">
+        <v>21</v>
+      </c>
+      <c r="E408" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>120905</v>
+      </c>
+      <c r="B409" t="s">
+        <v>226</v>
+      </c>
+      <c r="C409" t="s">
+        <v>228</v>
+      </c>
+      <c r="D409">
+        <v>6</v>
+      </c>
+      <c r="E409" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>120905</v>
+      </c>
+      <c r="B410" t="s">
+        <v>226</v>
+      </c>
+      <c r="C410" t="s">
+        <v>227</v>
+      </c>
+      <c r="D410">
+        <v>6</v>
+      </c>
+      <c r="E410" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>120905</v>
+      </c>
+      <c r="B411" t="s">
+        <v>226</v>
+      </c>
+      <c r="C411" t="s">
+        <v>228</v>
+      </c>
+      <c r="D411">
+        <v>4</v>
+      </c>
+      <c r="E411" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>120905</v>
+      </c>
+      <c r="B412" t="s">
+        <v>226</v>
+      </c>
+      <c r="C412" t="s">
+        <v>227</v>
+      </c>
+      <c r="D412">
+        <v>4</v>
+      </c>
+      <c r="E412" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>120905</v>
+      </c>
+      <c r="B413" t="s">
+        <v>226</v>
+      </c>
+      <c r="C413" t="s">
+        <v>228</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+      <c r="E413" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>120905</v>
+      </c>
+      <c r="B414" t="s">
+        <v>226</v>
+      </c>
+      <c r="C414" t="s">
+        <v>227</v>
+      </c>
+      <c r="D414">
+        <v>2</v>
+      </c>
+      <c r="E414" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>120905</v>
+      </c>
+      <c r="B415" t="s">
+        <v>226</v>
+      </c>
+      <c r="C415" t="s">
+        <v>228</v>
+      </c>
+      <c r="D415">
+        <v>3</v>
+      </c>
+      <c r="E415" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69D6C3B-99D4-4291-A0D4-2BE6A5CF4F2A}">
+  <dimension ref="A1:E415"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
